--- a/public/template/template_import_asset.xlsx
+++ b/public/template/template_import_asset.xlsx
@@ -1,48 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\My Drive\Freelance\ระบบครุภัณฑ์ วทอ\Import template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9F3AFF-7201-4336-A225-DA3168F18413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE9A9BA-A9D9-46BA-A374-91E5199CB692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{154888B4-B925-403D-871A-57AB429C4E9F}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{154888B4-B925-403D-871A-57AB429C4E9F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>รหัสคณะ</t>
-  </si>
-  <si>
-    <t>ชื่อคณะ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>รหัสภาค/กอง</t>
   </si>
@@ -65,12 +48,6 @@
     <t>ชื่อครุภัณฑ์ [รหัสชุด:ชื่อชุด]</t>
   </si>
   <si>
-    <t>คุณสมบัติ</t>
-  </si>
-  <si>
-    <t>รายละเอียด</t>
-  </si>
-  <si>
     <t>หน่วยนับ</t>
   </si>
   <si>
@@ -80,21 +57,9 @@
     <t>มูลค่าครุภัณฑ์</t>
   </si>
   <si>
-    <t>ผู้นำเข้าคลัง</t>
-  </si>
-  <si>
     <t>ผู้เบิก</t>
   </si>
   <si>
-    <t>วันที่เบิก</t>
-  </si>
-  <si>
-    <t>เลขที่ใบส่งของ</t>
-  </si>
-  <si>
-    <t>วันที่ส่งของ</t>
-  </si>
-  <si>
     <t>วันที่ตรวจรับ</t>
   </si>
   <si>
@@ -104,24 +69,6 @@
     <t>หมายเลขซีเรียล</t>
   </si>
   <si>
-    <t>รหัสสินทรัพย์</t>
-  </si>
-  <si>
-    <t>รหัสหมวดสินทรัพย์</t>
-  </si>
-  <si>
-    <t>ชื่อหมวดสินทรัพย์</t>
-  </si>
-  <si>
-    <t>รหัสกองทุน</t>
-  </si>
-  <si>
-    <t>รหัสแผนงาน</t>
-  </si>
-  <si>
-    <t>รหัสงาน/โครงการ</t>
-  </si>
-  <si>
     <t>การรับประกัน1</t>
   </si>
   <si>
@@ -138,16 +85,31 @@
   </si>
   <si>
     <t>จำนวนวันรับประกัน3</t>
+  </si>
+  <si>
+    <t>ยี่ห้อ</t>
+  </si>
+  <si>
+    <t>รุ่น</t>
+  </si>
+  <si>
+    <t>ผู้ใช้งาน</t>
+  </si>
+  <si>
+    <t>สถานที่ติดตั้ง</t>
+  </si>
+  <si>
+    <t>ประเภทครุภัณฑ์</t>
+  </si>
+  <si>
+    <t>หมายเหตุ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="187" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +117,29 @@
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Dialog"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,9 +162,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -198,9 +192,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีม Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -238,7 +232,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -344,7 +338,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -486,127 +480,541 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD650EF-5345-4059-8CC9-04438CC7338E}">
-  <dimension ref="A1:AH1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC612D15-172D-41D4-8DCF-733F88854297}">
+  <dimension ref="A1:Z136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="2"/>
+    <col min="2" max="2" width="37.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2"/>
+    <col min="4" max="4" width="17.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="2"/>
+    <col min="6" max="6" width="24.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.875" style="2" customWidth="1"/>
+    <col min="10" max="12" width="16" style="2"/>
+    <col min="13" max="13" width="20.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="16" style="2"/>
+    <col min="17" max="17" width="29.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="16" style="2"/>
+    <col min="20" max="20" width="39.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="16" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="6:6">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="6:6">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="6:6">
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="6:6">
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="6:6">
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="6:6">
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="6:6">
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="6:6">
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="6:6">
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="6:6">
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="6:6">
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="6:6">
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="6:6">
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="6:6">
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="6:6">
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="6:6">
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="6:6">
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="6:6">
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="6:6">
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="6:6">
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="6:6">
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="6:6">
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="6:6">
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="6:6">
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="6:6">
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="6:6">
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="6:6">
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="6:6">
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="6:6">
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="6:6">
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="6:6">
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="6:6">
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="6:6">
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="6:6">
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="6:6">
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="6:6">
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="6:6">
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="6:6">
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="6:6">
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="6:6">
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="6:6">
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="6:6">
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="6:6">
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="6:6">
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="6:6">
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="6:6">
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="6:6">
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="6:6">
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="6:6">
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="6:6">
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="6:6">
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="6:6">
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="6:6">
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="6:6">
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="6:6">
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="6:6">
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="6:6">
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="6:6">
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="6:6">
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="6:20">
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="6:20">
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="6:20">
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" spans="6:20">
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" spans="6:20">
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" spans="6:20">
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" spans="6:20">
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="6:20">
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="6:20">
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="6:20">
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" spans="6:20">
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" spans="6:20">
+      <c r="F124" s="3"/>
+      <c r="T124" s="4"/>
+    </row>
+    <row r="125" spans="6:20">
+      <c r="F125" s="3"/>
+      <c r="T125" s="4"/>
+    </row>
+    <row r="126" spans="6:20">
+      <c r="F126" s="3"/>
+      <c r="T126" s="4"/>
+    </row>
+    <row r="127" spans="6:20">
+      <c r="F127" s="3"/>
+      <c r="T127" s="4"/>
+    </row>
+    <row r="128" spans="6:20">
+      <c r="F128" s="3"/>
+      <c r="T128" s="4"/>
+    </row>
+    <row r="129" spans="6:20">
+      <c r="F129" s="3"/>
+      <c r="T129" s="4"/>
+    </row>
+    <row r="130" spans="6:20">
+      <c r="F130" s="3"/>
+      <c r="T130" s="4"/>
+    </row>
+    <row r="131" spans="6:20">
+      <c r="F131" s="3"/>
+      <c r="T131" s="4"/>
+    </row>
+    <row r="132" spans="6:20">
+      <c r="F132" s="3"/>
+      <c r="T132" s="4"/>
+    </row>
+    <row r="133" spans="6:20">
+      <c r="F133" s="3"/>
+      <c r="T133" s="4"/>
+    </row>
+    <row r="134" spans="6:20">
+      <c r="F134" s="3"/>
+      <c r="T134" s="4"/>
+    </row>
+    <row r="135" spans="6:20">
+      <c r="F135" s="3"/>
+      <c r="T135" s="4"/>
+    </row>
+    <row r="136" spans="6:20">
+      <c r="F136" s="3"/>
+      <c r="T136" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>